--- a/biology/Botanique/Parinari_campestris/Parinari_campestris.xlsx
+++ b/biology/Botanique/Parinari_campestris/Parinari_campestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parinari campestris est une espèce de plantes à fleurs de la famille des Chrysobalanaceae. C'est l'espèce type du genre Parinari Aubl..
 C'est un arbre.
-En Guyane, on l'appelle Gris-gris, Gaulette blanc, Néflier de Guyane (créole), Koko, Foungouti koko, Foungouti (Nenge tongo), Fungu pau (Saramaka), Kupeshini (Kali'na), Ãnkiavunon (Palikur)[2],[3],[4].
-Au Suriname, on l'appelle Vonkhout (Hollandais du Suriname), Foengoe, Tajamama (Sranan tongo), Boehoeroedoe, Beherada, Behoerada, Bohowoda, Buirata (Arawak), Foengoe pau (Saramaka), Koepésienie, Koepensienoe (Karib)[5],[2].
-On le nomme Pajura-grande au Brésil, Wild potato[4], Buhurada, Mahaicaballi[2] au Guyana, et Guaray, Merecurillo, Pasita au Venezuela[6].
-C'est aussi une des espèces que l'on appelle Bois Bandé dans les Caraïbes (Trinidad)[7].
+En Guyane, on l'appelle Gris-gris, Gaulette blanc, Néflier de Guyane (créole), Koko, Foungouti koko, Foungouti (Nenge tongo), Fungu pau (Saramaka), Kupeshini (Kali'na), Ãnkiavunon (Palikur).
+Au Suriname, on l'appelle Vonkhout (Hollandais du Suriname), Foengoe, Tajamama (Sranan tongo), Boehoeroedoe, Beherada, Behoerada, Bohowoda, Buirata (Arawak), Foengoe pau (Saramaka), Koepésienie, Koepensienoe (Karib),.
+On le nomme Pajura-grande au Brésil, Wild potato, Buhurada, Mahaicaballi au Guyana, et Guaray, Merecurillo, Pasita au Venezuela.
+C'est aussi une des espèces que l'on appelle Bois Bandé dans les Caraïbes (Trinidad).
 </t>
         </is>
       </c>
@@ -516,11 +528,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parinari campestris est un arbre atteignant 25 m de haut.
 Les jeunes branches sont villeuses (pubescence courte et douce), devenant glabres et grisâtres avec l'âge.
-Son bois dur et lourd (densité : 0,80 à 0,90), est de couleur brun rose plus ou moins clair, et contient généralement d'abondants gros corpuscules siliceux[8]. Les vaisseaux sont rares (1 à 2 par mm2), plus ou moins bien disséminés (tendance à former des amas lâches ou de courtes files obliques), et très gros (220 à 320 µm), avec des thylles rares à abondants[3].
+Son bois dur et lourd (densité : 0,80 à 0,90), est de couleur brun rose plus ou moins clair, et contient généralement d'abondants gros corpuscules siliceux. Les vaisseaux sont rares (1 à 2 par mm2), plus ou moins bien disséminés (tendance à former des amas lâches ou de courtes files obliques), et très gros (220 à 320 µm), avec des thylles rares à abondants.
 Les feuilles sont subsessiles, glabres dessus, tomenteuses dessous, à base arrondie à cordée, et à apex acuminé (acumen long de 7-12 mm).
 Les pétioles longs de 2-4(-7) mm, sont cylindriques, pubescents lorsqu'ils sont jeunes, et agrémentés de glandes discrètes.
 Ses stipules mesurant jusqu'à 1-3(4) cm de long, sont larges, aiguës à l'apex, villeuses, acuminées, semi-amplexicaules (enserrant plus ou moins la tige), et persistantes (ou tardivement caduques).
@@ -536,7 +550,7 @@
 L'ovaire et la base du style sont densément velues, hirsutes.
 Le fruit est glabre, de forme oblongue, de couleur brun foncé, avec de petites taches blanches, long de (3-)4-6 cm pour (1,5-)2-3 cm de large.
 L'épicarpe est lenticellé, le mésocarpe fin et charnu, et l'endocarpe épais et dur, densément tomenteux à l'intérieur
-[2],[5],[6].
+.
 </t>
         </is>
       </c>
@@ -565,9 +579,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parinari campestris est présent au Venezuela, à Trinidad, dans les Guyanes (Guyana, Suriname, Guyane) et au nord de l'Amazonie brésilienne adjacente[2],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parinari campestris est présent au Venezuela, à Trinidad, dans les Guyanes (Guyana, Suriname, Guyane) et au nord de l'Amazonie brésilienne adjacente,.
 </t>
         </is>
       </c>
@@ -596,13 +612,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parinari campestris pousse sur les berges inondables des cours d'eau et aux alentours des savanes et des milieux ouverts[2], autour de 0–900 m d'altitude au Venezuela[6].
-Parinari campestris est une espèce dominante dans les forêts ripicoles des cours d'eau côtiers de la Malmanoury et de la Karouabo[9],
-dans les forêts sur cordons sableux anciens d'Awala-Yalimapo (Guyane)[10]
-et les forêts marécageuses à Mauritia flexuosa à Trinidad[11].
-Les fruits et graines de Parinari campestris et une des ressources végétales les plus communes dans le régime alimentaire de la tortue Peltocephalus dumerilianus[12]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parinari campestris pousse sur les berges inondables des cours d'eau et aux alentours des savanes et des milieux ouverts, autour de 0–900 m d'altitude au Venezuela.
+Parinari campestris est une espèce dominante dans les forêts ripicoles des cours d'eau côtiers de la Malmanoury et de la Karouabo,
+dans les forêts sur cordons sableux anciens d'Awala-Yalimapo (Guyane)
+et les forêts marécageuses à Mauritia flexuosa à Trinidad.
+Les fruits et graines de Parinari campestris et une des ressources végétales les plus communes dans le régime alimentaire de la tortue Peltocephalus dumerilianus
 </t>
         </is>
       </c>
@@ -631,10 +649,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parinari campestris produit un bois dur et cassant. Il est initialement peu durable, mais peut convenir après traitement pour des usages en extérieur ou sous-marins (résistance aux tarets du fait de sa teneur en silice)[4].
-L'écorce de Parinari campestris est un aphrodisiaque populaire à Trinidad[13]. L'extrait de cette écorce ne présenterait pas de toxicité particulière[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parinari campestris produit un bois dur et cassant. Il est initialement peu durable, mais peut convenir après traitement pour des usages en extérieur ou sous-marins (résistance aux tarets du fait de sa teneur en silice).
+L'écorce de Parinari campestris est un aphrodisiaque populaire à Trinidad. L'extrait de cette écorce ne présenterait pas de toxicité particulière.
 </t>
         </is>
       </c>
@@ -663,10 +683,12 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses composés chimiques ont été analysés[14],[15].
-On a découvert un dimère de diterpène kaurane original dans Parinari campestris: le 15-oxozoapatlin-13α-yl-10′α,16′α-dihydroxy-9′α-methyl-20′-nor-kauran-19′-oic acid γ-lactone-17′-oate[16].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses composés chimiques ont été analysés,.
+On a découvert un dimère de diterpène kaurane original dans Parinari campestris: le 15-oxozoapatlin-13α-yl-10′α,16′α-dihydroxy-9′α-methyl-20′-nor-kauran-19′-oic acid γ-lactone-17′-oate.
 </t>
         </is>
       </c>
@@ -695,9 +717,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[17] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « PARINARI (campeſtris) foliis cordatis, acutis, fructu parvo. (Tabula 206.)
 Arbor trunco triginta vel quadraginta-pedali, ad ſummitatem ramoſo ; ramulis villoſis, candicantibus. Folia alterna, ſubſeſſilia, ſupernè virenria, internè tomento candicantia, cordata, ovata, acuminata. Stipulæ binæ, villoſæ, latæ, oblongæ, concavæ, acutæ, ſemi-amplexi-caules, deciduæ, ad baſim foliorum. Flores racemoſi, axillares &amp; terminales. Corolla, stamina, piſtillum, ut in præcedenti. Pericarpium : drupa ovata, parva, cortice craſſa, è ſulco virenti, acido : putamen oſſeum, duriſſimum, compreſſum, ovatum, inæasquale, rugoſum, ad oras dentatum, acutum, biloculare. Semen unicum in quolibet loculo, dulce &amp; edule. 
 Florebat &amp; fructum ferebat Junio.
